--- a/pubmed_validation_sheets/2582682 DISNET VALIDATION.xlsx
+++ b/pubmed_validation_sheets/2582682 DISNET VALIDATION.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/DISNET/CURRENT/pubmed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/DISNET_VALIDATION/pubmed/1.Validated/OK_DISNET_VALIDATION_PUBMED_(100)_v0.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2DB0571B-B1C2-6A44-A3CD-1A98489F72BB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD26EDA7-36D3-C849-BEF5-0832F5B372EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38800" yWindow="460" windowWidth="19840" windowHeight="21040" xr2:uid="{6E52D1B4-F9CB-4441-9081-5C2868523BBB}"/>
   </bookViews>
@@ -18,10 +18,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VALIDATION!$A$3:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1067,19 +1072,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>11</v>
@@ -1088,24 +1093,24 @@
         <v>11</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" s="10" t="b">
         <v>1</v>
@@ -1125,19 +1130,19 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>11</v>
@@ -1146,24 +1151,24 @@
         <v>11</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E7" s="10" t="b">
         <v>1</v>
@@ -1183,16 +1188,16 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E8" s="10" t="b">
         <v>1</v>
@@ -1212,13 +1217,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>23</v>
@@ -1241,19 +1246,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>11</v>
@@ -1262,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>11</v>
@@ -1270,19 +1275,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>11</v>
@@ -1291,24 +1296,24 @@
         <v>11</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E12" s="10" t="b">
         <v>1</v>
@@ -1328,16 +1333,16 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13" s="10" t="b">
         <v>1</v>
@@ -1352,24 +1357,24 @@
         <v>11</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E14" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>11</v>
@@ -1378,27 +1383,27 @@
         <v>11</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E15" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>11</v>
@@ -1407,24 +1412,24 @@
         <v>11</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E16" s="10" t="b">
         <v>1</v>
@@ -1444,16 +1449,16 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E17" s="10" t="b">
         <v>1</v>
@@ -1473,19 +1478,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E18" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>11</v>
@@ -1494,27 +1499,27 @@
         <v>11</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E19" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>11</v>
@@ -1523,27 +1528,27 @@
         <v>11</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E20" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>11</v>
@@ -1552,24 +1557,24 @@
         <v>11</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E21" s="10" t="b">
         <v>0</v>
@@ -1589,16 +1594,16 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E22" s="10" t="b">
         <v>0</v>
@@ -1613,18 +1618,18 @@
         <v>12</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>20</v>
@@ -1647,19 +1652,19 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E24" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>11</v>
@@ -1668,27 +1673,27 @@
         <v>11</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E25" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>11</v>
@@ -1697,24 +1702,24 @@
         <v>11</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E26" s="10" t="b">
         <v>0</v>
@@ -1734,19 +1739,19 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>11</v>
@@ -1755,7 +1760,7 @@
         <v>11</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>11</v>
@@ -1763,13 +1768,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>20</v>
@@ -1821,16 +1826,16 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E30" s="10" t="b">
         <v>0</v>
@@ -1879,16 +1884,16 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E32" s="10" t="b">
         <v>0</v>
@@ -1903,21 +1908,21 @@
         <v>12</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="E33" s="10" t="b">
         <v>0</v>
@@ -1937,19 +1942,19 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E34" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>11</v>
@@ -1958,27 +1963,27 @@
         <v>11</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E35" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>11</v>
@@ -1987,27 +1992,27 @@
         <v>11</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E36" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>11</v>
@@ -2016,27 +2021,27 @@
         <v>11</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E37" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>11</v>
@@ -2045,7 +2050,7 @@
         <v>11</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I37" s="14" t="s">
         <v>11</v>
@@ -2053,16 +2058,16 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E38" s="10" t="b">
         <v>0</v>
@@ -2082,16 +2087,16 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E39" s="10" t="b">
         <v>0</v>
@@ -2106,7 +2111,7 @@
         <v>12</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2262,7 +2267,7 @@
   </sheetData>
   <autoFilter ref="A3:I3" xr:uid="{C8F8ED17-02A5-A34D-8D3A-3D066498AB81}">
     <sortState ref="A4:I39">
-      <sortCondition ref="A3:A39"/>
+      <sortCondition ref="C3:C39"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">
